--- a/开发文档/接口文档.xlsx
+++ b/开发文档/接口文档.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjq/Documents/wechatprogram/SEworkplace/开发文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAA2FE10-43C8-4252-9D5F-DCC50639C323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8849E553-6352-5846-877B-ED84BD784FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27820" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>页面</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Date/timeStamp/String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>活动主页面单个活动项的活动时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -136,6 +132,102 @@
   </si>
   <si>
     <t>活动主页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clubMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的 主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动详细界面 活动项详细介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动详细页面单个活动项的活动名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动详细页面单个活动项的活动时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动详细页面单个活动项的活动地点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动详细页面单个活动项的社团名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动详情界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clubImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clubName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团详细页面单个社团项的社团图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团详细页面单个社团项的社团名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团详细页面单个社团项的社长信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团详细页面单个社团项的社长姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clubHeaderInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clubHeaderQQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clubHeaderName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团详细页面单个社团项的社长qq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,6 +296,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -484,29 +582,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" customWidth="1"/>
-    <col min="5" max="5" width="89.88671875" customWidth="1"/>
+    <col min="1" max="2" width="20.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" customWidth="1"/>
+    <col min="5" max="5" width="89.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -515,12 +613,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -532,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
@@ -545,87 +643,298 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/开发文档/接口文档.xlsx
+++ b/开发文档/接口文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjq/Documents/wechatprogram/SEworkplace/开发文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8849E553-6352-5846-877B-ED84BD784FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43BE519-A710-2F46-B8C2-8AF445FDE3FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27820" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>页面</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -228,6 +228,13 @@
   </si>
   <si>
     <t>社团详细页面单个社团项的社长qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+  </si>
+  <si>
+    <t>后台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +273,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,6 +316,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -596,7 +614,7 @@
     <col min="5" max="5" width="89.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1">
+    <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -613,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -630,7 +648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
@@ -643,14 +661,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -663,14 +681,14 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -686,8 +704,11 @@
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
@@ -699,8 +720,11 @@
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
@@ -712,8 +736,11 @@
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
@@ -725,8 +752,11 @@
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
@@ -738,15 +768,18 @@
       <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -763,7 +796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
@@ -776,7 +809,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="1" t="s">
@@ -789,7 +822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="1" t="s">
@@ -802,7 +835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="1" t="s">
@@ -815,7 +848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
@@ -827,27 +860,30 @@
       <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -863,8 +899,11 @@
       <c r="E23" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
@@ -876,8 +915,11 @@
       <c r="E24" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
@@ -889,8 +931,11 @@
       <c r="E25" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
@@ -902,8 +947,11 @@
       <c r="E26" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
@@ -915,16 +963,19 @@
       <c r="E27" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -932,7 +983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
     </row>

--- a/开发文档/接口文档.xlsx
+++ b/开发文档/接口文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjq/Documents/wechatprogram/SEworkplace/开发文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43BE519-A710-2F46-B8C2-8AF445FDE3FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361E878E-018E-BB42-9591-4C9B927A4A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27820" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
   <si>
     <t>页面</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -139,14 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>myMain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的 主界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>activityContent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clubHeaderInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>clubHeaderQQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,6 +223,182 @@
   </si>
   <si>
     <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clubInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>globalNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>world：message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String[ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团主页面全部社团Tab页单个社团项的社团图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团主页面全部社团Tab页单个社团项的社团名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团主页面全部社团Tab页单个社团项的社长姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团主页面全部社团Tab页单个社团项的社长qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团主页面推荐社团Tab页单个社团项的社团图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团主页面推荐社团Tab页单个社团项的社团人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团主页面推荐社团Tab页单个社团项的社团推荐评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团主页面推荐社团Tab页单个社团项的社团名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团主页面推荐社团Tab页单个社团项的社团标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myAdmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newActivityNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员界面待审批活动数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员界面单个待审批活动项社团图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员界面单个待审批活动项活动名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员界面单个待审批活动项活动时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员界面单个待审批活动项活动地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员界面单个待审批活动项社团名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据数组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newClubNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员界面待审批社团数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员界面单个待审批社团项社团图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员界面单个待审批社团项社团名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员界面单个待审批社团项社长姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员界面单个待审批社团项社长qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newClub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团主页面全部社团Tab页单个社团项的社团介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员界面单个待审批社团项社团介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -318,6 +482,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -612,9 +779,10 @@
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="37.1640625" customWidth="1"/>
     <col min="5" max="5" width="89.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
+    <row r="1" spans="1:7" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -630,8 +798,14 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -648,7 +822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
@@ -661,14 +835,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -681,14 +855,14 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -705,10 +879,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
@@ -721,26 +898,28 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
@@ -753,10 +932,11 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
@@ -769,225 +949,647 @@
         <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C24" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="C28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="C33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="C39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="C40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="C42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="G51:G55"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="G45:G49"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
